--- a/docs/performance_table.xlsx
+++ b/docs/performance_table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYU\Desktop\FRscore\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonghyun/Workspace/FRscore/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093ED6E2-D56A-DC4D-B685-DD9B7514602E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7380"/>
+    <workbookView xWindow="0" yWindow="2300" windowWidth="14400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,23 +58,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="181" formatCode="0.000"/>
-    <numFmt numFmtId="184" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -106,29 +107,29 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -405,781 +406,781 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
         <v>6</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>1.855</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>0.76149999999999995</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>69.55</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>65.62</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>70</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>65.12</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>70.47</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>1.869</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>0.75570000000000004</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>69.06</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>66.34</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>70.62</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>56.3</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>78.62</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
         <v>8</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>1.873</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>0.79579999999999995</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>71.22</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>71.430000000000007</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>71.13</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>51.72</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>85.19</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
         <v>9</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>1.873</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>0.80830000000000002</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>71.94</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>76.39</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>70.39</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>47.41</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>89.51</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
         <v>10</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>1.9079999999999999</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>0.83260000000000001</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>75.900000000000006</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>79.03</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>75</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>47.57</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>92.57</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
         <v>11</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>1.9319999999999999</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>0.84109999999999996</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>76.62</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>80.39</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>75.77</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>42.71</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>94.51</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
         <v>12</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>1.9319999999999999</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>0.88129999999999997</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>77.34</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>88.37</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>75.319999999999993</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>39.58</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="3">
         <v>97.25</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
         <v>13</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>1.9319999999999999</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>0.88249999999999995</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>76.260000000000005</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>89.47</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>74.17</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>35.42</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="3">
         <v>97.8</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
         <v>14</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>1.9319999999999999</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>0.88249999999999995</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>76.260000000000005</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>89.47</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>74.17</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>35.42</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="3">
         <v>97.8</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
         <v>15</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>1.9319999999999999</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>0.91979999999999995</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>75.180000000000007</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>93.55</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>72.87</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <v>30.21</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="3">
         <v>98.9</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
         <v>16</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>1.9319999999999999</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>0.91979999999999995</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>75.180000000000007</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <v>93.55</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>72.87</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <v>30.21</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="3">
         <v>98.9</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
         <v>17</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>1.9319999999999999</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>0.92410000000000003</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <v>74.819999999999993</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <v>93.33</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <v>72.58</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="3">
         <v>29.17</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="3">
         <v>98.9</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
         <v>18</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>1.9319999999999999</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>0.93710000000000004</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="3">
         <v>74.099999999999994</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="3">
         <v>96.15</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <v>71.83</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="3">
         <v>26.04</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="3">
         <v>99.45</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
         <v>19</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>1.984</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>0.9425</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="3">
         <v>81.290000000000006</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="3">
         <v>95.83</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="3">
         <v>79.92</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="3">
         <v>31.08</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="3">
         <v>99.51</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
         <v>20</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>1.984</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>0.94289999999999996</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="3">
         <v>80.58</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="3">
         <v>95.45</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="3">
         <v>79.3</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="3">
         <v>28.38</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="3">
         <v>99.51</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="6">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="4">
         <v>2</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>1.8</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>0.7167</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <v>65.17</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="5">
         <v>63.75</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="5">
         <v>70.39</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="5">
         <v>88.81</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="5">
         <v>34.520000000000003</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="6">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="4">
         <v>2.5</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>1.851</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>0.7722</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>69.8</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="5">
         <v>67.91</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="5">
         <v>71.89</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="5">
         <v>72.78</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="5">
         <v>66.94</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="6">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="4">
         <v>3</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>1.8720000000000001</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>0.81210000000000004</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <v>72.75</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="5">
         <v>77.33</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="5">
         <v>70.319999999999993</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="5">
         <v>58.05</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="5">
         <v>85.38</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="6">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="4">
         <v>3.5</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="1">
         <v>1.9039999999999999</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
         <v>0.83779999999999999</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <v>73.599999999999994</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="5">
         <v>81.67</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="5">
         <v>70.86</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="5">
         <v>48.68</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="5">
         <v>91.95</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="6">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="4">
         <v>4</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="1">
         <v>1.913</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
         <v>0.85129999999999995</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="5">
         <v>72.89</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="5">
         <v>83.69</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="5">
         <v>70.23</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="5">
         <v>40.97</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="5">
         <v>94.58</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="6">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="4">
         <v>4.5</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="1">
         <v>1.9359999999999999</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="1">
         <v>0.85870000000000002</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="5">
         <v>73.599999999999994</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="5">
         <v>86.73</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="5">
         <v>71.12</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="5">
         <v>36.159999999999997</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="5">
         <v>96.6</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="6">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="4">
         <v>5</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="1">
         <v>1.9390000000000001</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="1">
         <v>0.87629999999999997</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="5">
         <v>72.47</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="5">
         <v>90.59</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="5">
         <v>70.02</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="5">
         <v>29.06</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="5">
         <v>98.21</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="6">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="4">
         <v>5.5</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="1">
         <v>2.0049999999999999</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="1">
         <v>0.88360000000000005</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="5">
         <v>75</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="5">
         <v>84.75</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="5">
         <v>74.12</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="5">
         <v>22.83</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="5">
         <v>98.17</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="6">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="4">
         <v>6</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="1">
         <v>2.0049999999999999</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="1">
         <v>0.88629999999999998</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="5">
         <v>74.44</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="5">
         <v>89.36</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="5">
         <v>73.38</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="5">
         <v>19.18</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="5">
         <v>98.99</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="6">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="4">
         <v>6.5</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="1">
         <v>2.0150000000000001</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="1">
         <v>0.90669999999999995</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="5">
         <v>74.86</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="5">
         <v>92.11</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="5">
         <v>73.89</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="5">
         <v>16.59</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="5">
         <v>99.4</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="6">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="4">
         <v>7</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="1">
         <v>2.0150000000000001</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="1">
         <v>0.89659999999999995</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="5">
         <v>73.739999999999995</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="5">
         <v>90</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="5">
         <v>73.02</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="5">
         <v>12.8</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="5">
         <v>99.4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
